--- a/cleaner/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
+++ b/cleaner/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24975" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,43 +99,43 @@
     <t>DistancePlayer</t>
   </si>
   <si>
-    <t>宠物/与玩家距离</t>
+    <t>岛宠物/与玩家距离</t>
   </si>
   <si>
     <t>ArriveFollowPos</t>
   </si>
   <si>
-    <t>宠物/到达跟随点</t>
+    <t>岛宠物/到达跟随点</t>
+  </si>
+  <si>
+    <t>ValidPath</t>
+  </si>
+  <si>
+    <t>岛宠物/路径有效</t>
+  </si>
+  <si>
+    <t>PetHp</t>
+  </si>
+  <si>
+    <t>攻击/血量</t>
   </si>
   <si>
     <t>HasTarget</t>
   </si>
   <si>
-    <t>宠物/有攻击目标</t>
+    <t>攻击/有攻击目标</t>
   </si>
   <si>
     <t>ValidSkill</t>
   </si>
   <si>
-    <t>宠物/技能有效</t>
+    <t>攻击/技能有效</t>
   </si>
   <si>
     <t>TargetInAttackDistance</t>
   </si>
   <si>
-    <t>宠物/目标在攻击范围内</t>
-  </si>
-  <si>
-    <t>PetHp</t>
-  </si>
-  <si>
-    <t>宠物/血量</t>
-  </si>
-  <si>
-    <t>ValidPath</t>
-  </si>
-  <si>
-    <t>宠物/路径有效</t>
+    <t>攻击/目标在攻击范围内</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +335,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -544,6 +538,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -659,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +691,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,70 +712,73 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,41 +790,38 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -815,16 +835,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1176,14 +1199,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1278,10 +1301,10 @@
       </c>
     </row>
     <row r="4" ht="66" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2"/>
@@ -1290,37 +1313,37 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1">
@@ -1340,10 +1363,10 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="1">
@@ -1360,13 +1383,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1">
@@ -1386,10 +1409,10 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="1">
@@ -1409,14 +1432,14 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1429,17 +1452,17 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1455,10 +1478,10 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1">
@@ -1478,14 +1501,14 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1498,17 +1521,17 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1521,60 +1544,48 @@
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaner/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
+++ b/cleaner/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24975" windowHeight="10905"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>攻击/目标在攻击范围内</t>
+  </si>
+  <si>
+    <t>SkillEntry</t>
+  </si>
+  <si>
+    <t>技能/入口</t>
+  </si>
+  <si>
+    <t>SkillInitEnd</t>
+  </si>
+  <si>
+    <t>技能/初始阶段结束</t>
+  </si>
+  <si>
+    <t>SkillStandbyEnd</t>
+  </si>
+  <si>
+    <t>技能/待机阶段结束</t>
+  </si>
+  <si>
+    <t>SkillFireEnd</t>
+  </si>
+  <si>
+    <t>SkillToState</t>
+  </si>
+  <si>
+    <t>技能/转换到状态</t>
   </si>
 </sst>
 </file>
@@ -314,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +362,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -560,19 +581,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -679,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,16 +699,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,70 +720,73 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,41 +798,38 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -840,15 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1199,17 +1198,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
@@ -1312,280 +1311,647 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>5</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>5</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cleaner/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
+++ b/cleaner/BehaviorTree/strategy/Excel/table_behaviortree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -144,19 +144,28 @@
     <t>技能/入口</t>
   </si>
   <si>
-    <t>SkillInitEnd</t>
+    <t>SkillInitFinish</t>
   </si>
   <si>
     <t>技能/初始阶段结束</t>
   </si>
   <si>
-    <t>SkillStandbyEnd</t>
+    <t>SkillStandbyFinish</t>
   </si>
   <si>
     <t>技能/待机阶段结束</t>
   </si>
   <si>
-    <t>SkillFireEnd</t>
+    <t>SkillFireFinish</t>
+  </si>
+  <si>
+    <t>技能/释放阶段结束</t>
+  </si>
+  <si>
+    <t>SkillEndFinish</t>
+  </si>
+  <si>
+    <t>技能/收尾阶段结束</t>
   </si>
   <si>
     <t>SkillToState</t>
@@ -1198,7 +1207,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1657,7 +1666,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>
@@ -1680,13 +1689,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -1702,13 +1711,27 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1952,6 +1975,18 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
